--- a/biology/Virologie/Megaviricetes/Megaviricetes.xlsx
+++ b/biology/Virologie/Megaviricetes/Megaviricetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Megaviricetes sont une classe de virus[1]. Elle contient des virus géants, en particulier les « grands virus nucléocytoplasmiques » de l'embranchement des Nucleocytoviricota. Les membres de la classe sont connus pour être bien plus grands que la plupart des virus. Premièrement, leur génome est plus long, avec des gènes impliqués dans la réparation de l'ADN, la réplication de l'ADN, la transcription, la traduction génétique et d'autres processus que la majorité des virus n'ont pas. Deuxièmement, les Megaviricetes ont une grande taille, allant jusqu'à être plus grands que certaines bactéries.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Megaviricetes sont une classe de virus. Elle contient des virus géants, en particulier les « grands virus nucléocytoplasmiques » de l'embranchement des Nucleocytoviricota. Les membres de la classe sont connus pour être bien plus grands que la plupart des virus. Premièrement, leur génome est plus long, avec des gènes impliqués dans la réparation de l'ADN, la réplication de l'ADN, la transcription, la traduction génétique et d'autres processus que la majorité des virus n'ont pas. Deuxièmement, les Megaviricetes ont une grande taille, allant jusqu'à être plus grands que certaines bactéries.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La classe contient les ordres et les familles suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La classe contient les ordres et les familles suivants :
 Algavirales
 Phycodnaviridae
 Imitervirales
